--- a/04_memo/map02.xlsx
+++ b/04_memo/map02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97939DE6-B15A-4831-9223-5FAB335C8EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416ADB4-C97E-4710-B751-16A4017C32A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +216,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -648,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +673,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,7 +723,613 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1153,10 +1770,13 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="4.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1207,67 +1827,67 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
@@ -1281,61 +1901,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>7</v>
+      <c r="U5" s="3">
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1359,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1371,25 +1991,25 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -1398,15 +2018,15 @@
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <v>1</v>
       </c>
       <c r="V6" s="1">
@@ -1437,39 +2057,39 @@
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
         <v>1</v>
       </c>
       <c r="S7" s="1">
@@ -1478,7 +2098,7 @@
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="3">
         <v>0</v>
       </c>
       <c r="V7" s="1">
@@ -1506,37 +2126,37 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
@@ -1550,7 +2170,7 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="3">
         <v>1</v>
       </c>
       <c r="V8" s="1">
@@ -1587,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1605,9 +2225,9 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
         <v>0</v>
       </c>
       <c r="Q9" s="5">
@@ -1622,7 +2242,7 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="1">
@@ -1635,7 +2255,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1679,7 +2299,7 @@
       <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <v>0</v>
       </c>
       <c r="Q10" s="5">
@@ -1694,7 +2314,7 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="3">
         <v>1</v>
       </c>
       <c r="V10" s="1">
@@ -1716,19 +2336,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>7</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1752,21 +2372,21 @@
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
         <v>2</v>
       </c>
-      <c r="R11" s="4">
-        <v>7</v>
-      </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
+        <v>10</v>
+      </c>
+      <c r="U11" s="3">
         <v>1</v>
       </c>
       <c r="V11" s="1">
@@ -1799,7 +2419,7 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12" s="1">
@@ -1838,14 +2458,14 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="3">
         <v>1</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -1871,14 +2491,14 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1890,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4">
         <v>0</v>
@@ -1910,7 +2530,7 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="3">
         <v>0</v>
       </c>
       <c r="V13" s="1">
@@ -1943,38 +2563,38 @@
       <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
+      <c r="H14" s="5">
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="5">
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
@@ -1982,7 +2602,7 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="3">
         <v>1</v>
       </c>
       <c r="V14" s="1">
@@ -2013,37 +2633,37 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="4">
         <v>1</v>
@@ -2054,7 +2674,7 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="3">
         <v>0</v>
       </c>
       <c r="V15" s="1">
@@ -2079,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2091,25 +2711,25 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
@@ -2118,15 +2738,15 @@
         <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="3">
         <v>1</v>
       </c>
       <c r="V16" s="1">
@@ -2145,61 +2765,61 @@
         <v>0</v>
       </c>
       <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
@@ -2214,67 +2834,67 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>1</v>
@@ -2292,44 +2912,249 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A4:W18">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+  <conditionalFormatting sqref="M4:T4 M6:T10 Q5:T5 A12:K16 A18:K18 A17:E17 V4:W10">
+    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
+    <cfRule type="cellIs" dxfId="77" priority="53" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="54" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="56" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="57" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:T16 L18:W18 S17:T17 V11:W17">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:P5">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:R17">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U17">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map02.xlsx
+++ b/04_memo/map02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416ADB4-C97E-4710-B751-16A4017C32A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE8F94-7F0C-4A17-8B02-9BFA1215B879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -723,108 +723,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1770,7 +1669,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1904,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1952,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="T5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U5" s="3">
         <v>0</v>
@@ -2000,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2348,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -2372,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
@@ -2720,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -2816,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="T17" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -2913,248 +2812,248 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M4:T4 M6:T10 Q5:T5 A12:K16 A18:K18 A17:E17 V4:W10">
-    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
-    <cfRule type="cellIs" dxfId="77" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:T16 L18:W18 S17:T17 V11:W17">
-    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:P5">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:R17">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U17">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
